--- a/trunk/Financial Engineering and Algorithms/fe2013f-Lecture-1-Note.xlsx
+++ b/trunk/Financial Engineering and Algorithms/fe2013f-Lecture-1-Note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Negligible interest</t>
   </si>
@@ -272,6 +272,30 @@
   </si>
   <si>
     <t>Statement precise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial </t>
+  </si>
+  <si>
+    <t>Nhị thức</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Hạn chế</t>
+  </si>
+  <si>
+    <t>Nguyên tắc chênh lệch giá</t>
+  </si>
+  <si>
+    <t>Arbitrage principle</t>
+  </si>
+  <si>
+    <t>Involve</t>
+  </si>
+  <si>
+    <t>Liên quan đến</t>
   </si>
 </sst>
 </file>
@@ -627,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +1007,38 @@
         <v>57</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Financial Engineering and Algorithms/fe2013f-Lecture-1-Note.xlsx
+++ b/trunk/Financial Engineering and Algorithms/fe2013f-Lecture-1-Note.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$B$49</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Negligible interest</t>
   </si>
@@ -296,6 +299,18 @@
   </si>
   <si>
     <t>Liên quan đến</t>
+  </si>
+  <si>
+    <t>Thủ quỹ công ty</t>
+  </si>
+  <si>
+    <t>Corporate treasurer</t>
+  </si>
+  <si>
+    <t>Tổ chức, doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Institution</t>
   </si>
 </sst>
 </file>
@@ -331,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -339,14 +354,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,395 +682,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B49" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:B49">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
